--- a/Time-Card/РЕЗОНАТОРЫ/Microchip/SA45/Latest/SA45_DaughterCard-RevX1_bom.xlsx
+++ b/Time-Card/РЕЗОНАТОРЫ/Microchip/SA45/Latest/SA45_DaughterCard-RevX1_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P4_Workspaces\research\users\ChrisXRobles\Tasks\T131322016 - SA45 Daughter Card\outputs\assembly_SA45_DaughterCard\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QUANTUM\QUANTUM\QUANTUM\Time-Card\РЕЗОНАТОРЫ\Microchip\SA45\Latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EFE260A-4509-4FE4-AE4A-F1F58EC83741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21393DB2-0652-48D3-BD2E-A95B67AF8B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25485" yWindow="3510" windowWidth="17280" windowHeight="8970" xr2:uid="{96274464-A311-4244-A661-15A8D5467477}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96274464-A311-4244-A661-15A8D5467477}"/>
   </bookViews>
   <sheets>
     <sheet name="SA45_DaughterCard-RevX1_bom" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,9 +422,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -462,7 +462,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -568,7 +568,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -710,7 +710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -720,16 +720,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44559D7-8ADF-40C6-96BC-9C6927A4A336}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="28.5546875" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="8" width="16" customWidth="1"/>
+    <col min="6" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
